--- a/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-sample-property.xlsx
+++ b/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-sample-property.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vkovtun/Work/Projects/openBIS/sissource/openbis/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4411E80-43F0-3B43-A8E2-3111844C9524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6266D5CD-DA3E-1E41-AB93-D9249E237A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{75C30B8F-E590-0942-81AA-3FAD886CC976}"/>
+    <workbookView xWindow="1460" yWindow="500" windowWidth="27340" windowHeight="16940" xr2:uid="{75C30B8F-E590-0942-81AA-3FAD886CC976}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Validation script</t>
   </si>
   <si>
-    <t>Generated Code Prefix</t>
-  </si>
-  <si>
     <t>Mandatory</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>Data type</t>
   </si>
   <si>
-    <t>Vocabulary Code</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -147,6 +141,12 @@
   </si>
   <si>
     <t>SAMPLE:PERSON</t>
+  </si>
+  <si>
+    <t>Vocabulary code</t>
+  </si>
+  <si>
+    <t>Generated code prefix</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -608,7 +608,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -621,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="b">
         <v>0</v>
@@ -635,31 +635,31 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="b">
         <v>1</v>
@@ -676,16 +676,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="I5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="b">
         <v>1</v>
@@ -702,16 +702,16 @@
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="I6" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J6" s="5"/>
     </row>
@@ -746,7 +746,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -759,13 +759,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -776,31 +776,31 @@
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="J11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="K11" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -808,25 +808,25 @@
         <v>1</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>18</v>
-      </c>
       <c r="I12" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -834,25 +834,25 @@
         <v>1</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="12" t="s">
+      <c r="I13" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -860,25 +860,25 @@
         <v>1</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="I14" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -886,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -912,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="11" t="b">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>1</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-sample-property.xlsx
+++ b/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-sample-property.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vkovtun/Work/Projects/openBIS/sissource/openbis/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6266D5CD-DA3E-1E41-AB93-D9249E237A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66490BA5-AB5C-174F-A8EB-7A7A3D1CBE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="500" windowWidth="27340" windowHeight="16940" xr2:uid="{75C30B8F-E590-0942-81AA-3FAD886CC976}"/>
+    <workbookView xWindow="1480" yWindow="500" windowWidth="25520" windowHeight="15480" xr2:uid="{75C30B8F-E590-0942-81AA-3FAD886CC976}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
   <si>
     <t>SAMPLE_TYPE</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Generated code prefix</t>
+  </si>
+  <si>
+    <t>test.py</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="K14" sqref="K14:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -714,6 +717,9 @@
         <v>21</v>
       </c>
       <c r="J6" s="5"/>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
@@ -935,5 +941,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>